--- a/pages/raborrelli-collaborators.xlsx
+++ b/pages/raborrelli-collaborators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="200">
   <si>
     <t xml:space="preserve">The following information regarding collaborators and other affiliations (COA) must be separately provided for each individual identified as senior project personnel.  The COA information must be provided through use of this COA template.  
 Please complete this template (e.g., Excel, Google Sheets, LibreOffice), save as .xlsx or .xls, and upload directly as a Fastlane Collaborators and Other Affiliations single copy doc.  Do not upload .pdf. 
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t xml:space="preserve">Weber, Keith T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladendorff, Marlene Z.</t>
   </si>
   <si>
     <t xml:space="preserve">Soule, Terence</t>
@@ -912,14 +915,14 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
@@ -1090,31 +1093,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1183,8 +1186,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableD" displayName="TableD" ref="A42:E159" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A42:E159"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableD" displayName="TableD" ref="A42:E160" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A42:E160"/>
   <tableColumns count="5">
     <tableColumn id="1" name="4"/>
     <tableColumn id="2" name="Name:"/>
@@ -1209,8 +1212,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableD5" displayName="TableD5" ref="A164:E165" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A164:E165"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableD5" displayName="TableD5" ref="A165:E166" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A165:E166"/>
   <tableColumns count="5">
     <tableColumn id="1" name="5"/>
     <tableColumn id="2" name="Name:"/>
@@ -1228,8 +1231,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="310" zoomScaleNormal="310" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="310" zoomScaleNormal="310" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1571,7 +1574,9 @@
       <c r="D33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21"/>
+      <c r="A34" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="B34" s="22" t="s">
         <v>46</v>
       </c>
@@ -1580,8 +1585,10 @@
       </c>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="B35" s="22" t="s">
         <v>47</v>
       </c>
@@ -1590,34 +1597,38 @@
       </c>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32" t="s">
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="33"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" s="14" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" s="14" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="s">
@@ -1707,16 +1718,16 @@
       <c r="E45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="32"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="35"/>
     </row>
     <row r="47" s="14" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3118,7 +3129,7 @@
         <v>184</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D154" s="30"/>
       <c r="E154" s="23"/>
@@ -3144,7 +3155,7 @@
         <v>186</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="D156" s="30"/>
       <c r="E156" s="23"/>
@@ -3153,114 +3164,126 @@
       <c r="A157" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="B157" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C157" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="C157" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="23"/>
     </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="45" t="s">
         <v>189</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="D158" s="30"/>
       <c r="E158" s="23"/>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="23"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B160" s="34"/>
-      <c r="C160" s="34"/>
-      <c r="D160" s="34"/>
-      <c r="E160" s="34"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="14" t="s">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="30"/>
+      <c r="E160" s="23"/>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B161" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="17"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B162" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
       <c r="E162" s="17"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="14"/>
-      <c r="B163" s="14"/>
+      <c r="A163" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="C163" s="14"/>
-      <c r="D163" s="16" t="s">
+      <c r="D163" s="14"/>
+      <c r="E163" s="17"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="14"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E163" s="17"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B164" s="19" t="s">
+      <c r="E164" s="17"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B165" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C164" s="19" t="s">
+      <c r="C165" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D164" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E164" s="20" t="s">
+      <c r="D165" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E165" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B165" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C165" s="22" t="s">
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B166" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C166" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D165" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E165" s="23"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D166" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E166" s="23"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="22">
@@ -3285,7 +3308,7 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="B39:E39"/>
-    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A161:E161"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A23" type="list">
@@ -3300,11 +3323,11 @@
       <formula1>"G:,T:"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A43:A159" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A43:A160" type="list">
       <formula1>"A:,C:"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A165" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A166" type="list">
       <formula1>"B:,E:"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/pages/raborrelli-collaborators.xlsx
+++ b/pages/raborrelli-collaborators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="233">
   <si>
     <t xml:space="preserve">The following information regarding collaborators and other affiliations (COA) must be separately provided for each individual identified as senior project personnel. The COA information must be provided through use of this COA template.  
 Please complete this template (e.g., Excel, Google Sheets, LibreOffice), save as .xlsx or .xls, and upload directly as a Research.gov or FastLane Collaborators and Other Affiliations single-copy document. Do not upload .pdf. Grants.gov Users: The COA information must be provided through use of the COA template and uploaded as a PDF attachment.
@@ -428,6 +428,21 @@
     <t xml:space="preserve">Calvin, Olin</t>
   </si>
   <si>
+    <t xml:space="preserve">Johnson, Justin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idaho National Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manwaring, Nathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasley, Trevin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naval Reactors Facility</t>
+  </si>
+  <si>
     <t xml:space="preserve">Widdicombe, Teyen</t>
   </si>
   <si>
@@ -477,9 +492,6 @@
     <t xml:space="preserve">Heidrich, Brenden</t>
   </si>
   <si>
-    <t xml:space="preserve">Idaho National Laboratory</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carter, John</t>
   </si>
   <si>
@@ -549,6 +561,18 @@
     <t xml:space="preserve">Micron Semiconductor Inc</t>
   </si>
   <si>
+    <t xml:space="preserve">McKellar, Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root, Sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throckmorton, Porter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk Mitigation Consulting</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shigrekar, Amey</t>
   </si>
   <si>
@@ -609,9 +633,6 @@
     <t xml:space="preserve">Christensen, Richard</t>
   </si>
   <si>
-    <t xml:space="preserve">McKellar, Michael</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arcilesi, David</t>
   </si>
   <si>
@@ -874,6 +895,90 @@
   </si>
   <si>
     <t xml:space="preserve">Bowen, Vince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundaram, Arvind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covert Defenses, LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashy, Oussama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Services Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koerner, Cassie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardenas, Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Tribal Energy Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eaton, Weston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Wyoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadesan, Majia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haggerty, Julia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Montana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djokic, Denia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kloiber, Brian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hou, Jason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wu, Fen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bao, Han</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burton, Eric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordt, Kevin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grant County Public Utility District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huzurbazar, Snehalata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Virginia University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petit de Mange, Ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pate, Robert</t>
   </si>
   <si>
     <r>
@@ -1156,7 +1261,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1283,14 +1388,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1355,6 +1452,30 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF1F4E79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7F7F7"/>
+          <bgColor rgb="FF272727"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1430,8 +1551,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableC" displayName="TableC" ref="A37:D45" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A37:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableC" displayName="TableC" ref="A37:D48" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A37:D48"/>
   <tableColumns count="4">
     <tableColumn id="1" name="3"/>
     <tableColumn id="2" name="Advisor/Advisee Name:"/>
@@ -1442,8 +1563,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableD" displayName="TableD" ref="A52:E170" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A52:E170"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableD" displayName="TableD" ref="A55:E193" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A55:E193"/>
   <tableColumns count="5">
     <tableColumn id="1" name="4"/>
     <tableColumn id="2" name="Name:"/>
@@ -1468,8 +1589,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableD5" displayName="TableD5" ref="A176:E181" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A176:E181"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableD5" displayName="TableD5" ref="A199:E204" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A199:E204"/>
   <tableColumns count="5">
     <tableColumn id="1" name="5"/>
     <tableColumn id="2" name="Name:"/>
@@ -1485,13 +1606,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E108" activeCellId="0" sqref="E108"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B143" activeCellId="0" sqref="B143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.11"/>
@@ -1821,7 +1942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
         <v>34</v>
       </c>
@@ -1831,9 +1952,9 @@
       <c r="C38" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
         <v>34</v>
       </c>
@@ -1843,9 +1964,9 @@
       <c r="C39" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="29"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
         <v>34</v>
       </c>
@@ -1855,9 +1976,9 @@
       <c r="C40" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="32"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
         <v>34</v>
       </c>
@@ -1867,19 +1988,19 @@
       <c r="C41" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="36"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="26" t="s">
@@ -1905,7 +2026,7 @@
       </c>
       <c r="D44" s="29"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="s">
         <v>42</v>
       </c>
@@ -1913,1718 +2034,2017 @@
         <v>47</v>
       </c>
       <c r="C45" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="29"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="29"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="29"/>
-    </row>
-    <row r="46" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" s="20" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="37" t="s">
+      <c r="D48" s="29"/>
+    </row>
+    <row r="49" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" s="20" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+    </row>
+    <row r="51" s="20" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-    </row>
-    <row r="48" s="20" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="22"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="26" t="s">
+      <c r="D57" s="34"/>
+      <c r="E57" s="39"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="34"/>
+      <c r="E58" s="39"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="39"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="39"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="39"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="39"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="34"/>
+      <c r="E63" s="39"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="39"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="34"/>
+      <c r="E65" s="39"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="34"/>
+      <c r="E66" s="39"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="39"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="34"/>
+      <c r="E68" s="39"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="41"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="35" t="s">
+      <c r="C69" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="34"/>
+      <c r="E69" s="39"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="41"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="41"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="41"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="35" t="s">
+      <c r="B70" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="34"/>
+      <c r="E70" s="39"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="41"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="35" t="s">
+      <c r="D71" s="34"/>
+      <c r="E71" s="39"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="34"/>
+      <c r="E72" s="39"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="34"/>
+      <c r="E73" s="39"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="D74" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="39"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="34"/>
+      <c r="E75" s="39"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="34"/>
+      <c r="E76" s="39"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="41"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="41"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="41"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="41"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="41"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="36"/>
-      <c r="E64" s="41"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="41"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="35" t="s">
+      <c r="D77" s="34"/>
+      <c r="E77" s="39"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="41"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="41"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="41"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="41"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="41"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" s="41"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="36"/>
-      <c r="E72" s="41"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="41"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="28"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="41"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="41"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="41"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="36"/>
-      <c r="E78" s="41"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="27" t="s">
+      <c r="D78" s="34"/>
+      <c r="E78" s="39"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="28"/>
+      <c r="C79" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="34"/>
+      <c r="E79" s="39"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="27"/>
+      <c r="E80" s="28"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="34"/>
+      <c r="E81" s="39"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="34"/>
+      <c r="E82" s="39"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="34"/>
+      <c r="E83" s="39"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="34"/>
+      <c r="E84" s="39"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="28"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="29"/>
+      <c r="E86" s="28"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="41"/>
+      <c r="E87" s="42"/>
+    </row>
+    <row r="88" s="20" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="34"/>
+      <c r="E88" s="39"/>
+    </row>
+    <row r="89" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="34"/>
+      <c r="E89" s="39"/>
+    </row>
+    <row r="90" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="34"/>
+      <c r="E90" s="39"/>
+    </row>
+    <row r="91" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="34"/>
+      <c r="E91" s="39"/>
+    </row>
+    <row r="92" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="34"/>
+      <c r="E92" s="39"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="34"/>
+      <c r="E93" s="39"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="34"/>
+      <c r="E94" s="39"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="34"/>
+      <c r="E95" s="39"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="34"/>
+      <c r="E96" s="39"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="34"/>
+      <c r="E97" s="39"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="34"/>
+      <c r="E98" s="39"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="34"/>
+      <c r="E99" s="39"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="34"/>
+      <c r="E100" s="39"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="34"/>
+      <c r="E101" s="39"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="34"/>
+      <c r="E102" s="39"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D103" s="34"/>
+      <c r="E103" s="39"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" s="34"/>
+      <c r="E104" s="39"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="34"/>
+      <c r="E105" s="39"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="34"/>
+      <c r="E106" s="39"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="34"/>
+      <c r="E107" s="39"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D108" s="34"/>
+      <c r="E108" s="39"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D109" s="34"/>
+      <c r="E109" s="39"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" s="34"/>
+      <c r="E110" s="39"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D111" s="34"/>
+      <c r="E111" s="39"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D112" s="34"/>
+      <c r="E112" s="39"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" s="34"/>
+      <c r="E113" s="39"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" s="34"/>
+      <c r="E114" s="39"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D115" s="34"/>
+      <c r="E115" s="39"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D116" s="34"/>
+      <c r="E116" s="39"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D117" s="34"/>
+      <c r="E117" s="39"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="34"/>
+      <c r="E118" s="39"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="34"/>
+      <c r="E119" s="39"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="34"/>
+      <c r="E120" s="39"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D121" s="34"/>
+      <c r="E121" s="39"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D122" s="34"/>
+      <c r="E122" s="39"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" s="34"/>
+      <c r="E123" s="39"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D124" s="34"/>
+      <c r="E124" s="39"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D125" s="34"/>
+      <c r="E125" s="39"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="34"/>
+      <c r="E126" s="39"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="34"/>
+      <c r="E127" s="39"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D128" s="34"/>
+      <c r="E128" s="39"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D129" s="34"/>
+      <c r="E129" s="39"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="34"/>
+      <c r="E130" s="39"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="34"/>
+      <c r="E131" s="39"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D132" s="34"/>
+      <c r="E132" s="39"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="34"/>
+      <c r="E133" s="39"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="34"/>
+      <c r="E134" s="39"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D135" s="34"/>
+      <c r="E135" s="39"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D136" s="34"/>
+      <c r="E136" s="39"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="34"/>
+      <c r="E137" s="39"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D138" s="34"/>
+      <c r="E138" s="39"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" s="34"/>
+      <c r="E139" s="39"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="34"/>
+      <c r="E140" s="39"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" s="34"/>
+      <c r="E141" s="39"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C142" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="29"/>
-      <c r="E80" s="28"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="43"/>
-      <c r="E81" s="44"/>
-    </row>
-    <row r="82" s="20" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" s="36"/>
-      <c r="E82" s="41"/>
-    </row>
-    <row r="83" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="36"/>
-      <c r="E83" s="41"/>
-    </row>
-    <row r="84" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" s="36"/>
-      <c r="E84" s="41"/>
-    </row>
-    <row r="85" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="41"/>
-    </row>
-    <row r="86" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D86" s="36"/>
-      <c r="E86" s="41"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87" s="36"/>
-      <c r="E87" s="41"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="35" t="s">
+      <c r="D142" s="34"/>
+      <c r="E142" s="39"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" s="34"/>
+      <c r="E143" s="39"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" s="34"/>
+      <c r="E144" s="39"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D145" s="34"/>
+      <c r="E145" s="39"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" s="34"/>
+      <c r="E146" s="39"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D147" s="34"/>
+      <c r="E147" s="39"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" s="34"/>
+      <c r="E148" s="39"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" s="34"/>
+      <c r="E149" s="39"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" s="34"/>
+      <c r="E150" s="39"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D151" s="34"/>
+      <c r="E151" s="39"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" s="34"/>
+      <c r="E152" s="39"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" s="34"/>
+      <c r="E153" s="39"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B154" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="34"/>
+      <c r="E154" s="39"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B155" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C155" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="36"/>
-      <c r="E88" s="41"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" s="35" t="s">
+      <c r="D155" s="34"/>
+      <c r="E155" s="39"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B156" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D156" s="34"/>
+      <c r="E156" s="39"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D157" s="34"/>
+      <c r="E157" s="39"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B158" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D158" s="34"/>
+      <c r="E158" s="39"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C159" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="41"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="35" t="s">
+      <c r="D159" s="34"/>
+      <c r="E159" s="39"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B160" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D160" s="34"/>
+      <c r="E160" s="39"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B161" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D161" s="34"/>
+      <c r="E161" s="39"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B162" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" s="34"/>
+      <c r="E162" s="39"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B163" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" s="34"/>
+      <c r="E163" s="39"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B164" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" s="34"/>
+      <c r="E164" s="39"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" s="34"/>
+      <c r="E165" s="39"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B166" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C166" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="36"/>
-      <c r="E90" s="41"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C91" s="35" t="s">
+      <c r="D166" s="34"/>
+      <c r="E166" s="39"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B167" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C167" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="36"/>
-      <c r="E91" s="41"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="35" t="s">
+      <c r="D167" s="34"/>
+      <c r="E167" s="39"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B168" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D168" s="34"/>
+      <c r="E168" s="39"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B169" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D169" s="34"/>
+      <c r="E169" s="39"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B170" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D170" s="34"/>
+      <c r="E170" s="39"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C171" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="36"/>
-      <c r="E92" s="41"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C93" s="35" t="s">
+      <c r="D171" s="34"/>
+      <c r="E171" s="39"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B172" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C172" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="36"/>
-      <c r="E93" s="41"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B94" s="35" t="s">
+      <c r="D172" s="34"/>
+      <c r="E172" s="39"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B173" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D173" s="34"/>
+      <c r="E173" s="39"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B174" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D174" s="34"/>
+      <c r="E174" s="39"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B175" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D175" s="34"/>
+      <c r="E175" s="39"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B176" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D176" s="34"/>
+      <c r="E176" s="39"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B177" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D177" s="34"/>
+      <c r="E177" s="39"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B178" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C178" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="D178" s="34"/>
+      <c r="E178" s="39"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B179" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C179" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D179" s="34"/>
+      <c r="E179" s="39"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B180" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D180" s="34"/>
+      <c r="E180" s="39"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B181" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="D181" s="34"/>
+      <c r="E181" s="39"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B182" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C182" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D182" s="34"/>
+      <c r="E182" s="39"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B183" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183" s="34"/>
+      <c r="E183" s="39"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B184" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C184" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D184" s="34"/>
+      <c r="E184" s="39"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B185" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D185" s="34"/>
+      <c r="E185" s="39"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B186" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D186" s="34"/>
+      <c r="E186" s="39"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B187" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C187" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D187" s="34"/>
+      <c r="E187" s="39"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B188" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C188" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D188" s="34"/>
+      <c r="E188" s="39"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B189" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C189" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D189" s="34"/>
+      <c r="E189" s="39"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B190" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C190" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D190" s="34"/>
+      <c r="E190" s="39"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B191" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D191" s="34"/>
+      <c r="E191" s="39"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B192" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C192" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D192" s="34"/>
+      <c r="E192" s="39"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B193" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C193" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="41"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B95" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="41"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C96" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="41"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B97" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="41"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D98" s="36"/>
-      <c r="E98" s="41"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B99" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="36"/>
-      <c r="E99" s="41"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B100" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D100" s="36"/>
-      <c r="E100" s="41"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B101" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="36"/>
-      <c r="E101" s="41"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B102" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="41"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B103" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C103" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="41"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B104" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D104" s="36"/>
-      <c r="E104" s="41"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B105" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D105" s="36"/>
-      <c r="E105" s="41"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B106" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C106" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D106" s="36"/>
-      <c r="E106" s="41"/>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B107" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D107" s="36"/>
-      <c r="E107" s="41"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B108" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="41"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D109" s="36"/>
-      <c r="E109" s="41"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B110" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="41"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B111" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C111" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D111" s="36"/>
-      <c r="E111" s="41"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D112" s="36"/>
-      <c r="E112" s="41"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B113" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C113" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D113" s="36"/>
-      <c r="E113" s="41"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B114" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D114" s="36"/>
-      <c r="E114" s="41"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B115" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C115" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D115" s="36"/>
-      <c r="E115" s="41"/>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B116" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D116" s="36"/>
-      <c r="E116" s="41"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B117" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D117" s="36"/>
-      <c r="E117" s="41"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B118" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D118" s="36"/>
-      <c r="E118" s="41"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B119" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C119" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D119" s="36"/>
-      <c r="E119" s="41"/>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B120" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C120" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D120" s="36"/>
-      <c r="E120" s="41"/>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B121" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C121" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="36"/>
-      <c r="E121" s="41"/>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B122" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C122" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D122" s="36"/>
-      <c r="E122" s="41"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B123" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C123" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D123" s="36"/>
-      <c r="E123" s="41"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B124" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C124" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D124" s="36"/>
-      <c r="E124" s="41"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B125" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C125" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D125" s="36"/>
-      <c r="E125" s="41"/>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B126" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C126" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" s="36"/>
-      <c r="E126" s="41"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B127" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C127" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D127" s="36"/>
-      <c r="E127" s="41"/>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B128" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C128" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="36"/>
-      <c r="E128" s="41"/>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B129" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C129" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D129" s="36"/>
-      <c r="E129" s="41"/>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B130" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C130" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D130" s="36"/>
-      <c r="E130" s="41"/>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B131" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C131" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D131" s="36"/>
-      <c r="E131" s="41"/>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B132" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C132" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D132" s="36"/>
-      <c r="E132" s="41"/>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B133" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C133" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D133" s="36"/>
-      <c r="E133" s="41"/>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B134" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C134" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" s="36"/>
-      <c r="E134" s="41"/>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B135" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C135" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D135" s="36"/>
-      <c r="E135" s="41"/>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B136" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C136" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D136" s="36"/>
-      <c r="E136" s="41"/>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B137" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C137" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D137" s="36"/>
-      <c r="E137" s="41"/>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B138" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C138" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D138" s="36"/>
-      <c r="E138" s="41"/>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B139" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C139" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="D139" s="36"/>
-      <c r="E139" s="41"/>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B140" s="35" t="s">
+      <c r="D193" s="34"/>
+      <c r="E193" s="39"/>
+    </row>
+    <row r="194" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B195" s="18"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="18"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="18"/>
+      <c r="E196" s="18"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="19"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="43"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198" s="22"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B199" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D199" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E199" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B200" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C200" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C140" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D140" s="36"/>
-      <c r="E140" s="41"/>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B141" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C141" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D141" s="36"/>
-      <c r="E141" s="41"/>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B142" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C142" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D142" s="36"/>
-      <c r="E142" s="41"/>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B143" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D143" s="36"/>
-      <c r="E143" s="41"/>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B144" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C144" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D144" s="36"/>
-      <c r="E144" s="41"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B145" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C145" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D145" s="36"/>
-      <c r="E145" s="41"/>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B146" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C146" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D146" s="36"/>
-      <c r="E146" s="41"/>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B147" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C147" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D147" s="36"/>
-      <c r="E147" s="41"/>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B148" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C148" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D148" s="36"/>
-      <c r="E148" s="41"/>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B149" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C149" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="36"/>
-      <c r="E149" s="41"/>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B150" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C150" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D150" s="36"/>
-      <c r="E150" s="41"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B151" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C151" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="D151" s="36"/>
-      <c r="E151" s="41"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B152" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C152" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D152" s="36"/>
-      <c r="E152" s="41"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B153" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="C153" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="36"/>
-      <c r="E153" s="41"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B154" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C154" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D154" s="36"/>
-      <c r="E154" s="41"/>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B155" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C155" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="D155" s="36"/>
-      <c r="E155" s="41"/>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B156" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="C156" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D156" s="36"/>
-      <c r="E156" s="41"/>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B157" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="C157" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D157" s="36"/>
-      <c r="E157" s="41"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B158" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="C158" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D158" s="36"/>
-      <c r="E158" s="41"/>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B159" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="C159" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D159" s="36"/>
-      <c r="E159" s="41"/>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B160" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C160" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="36"/>
-      <c r="E160" s="41"/>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B161" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C161" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="36"/>
-      <c r="E161" s="41"/>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B162" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C162" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D162" s="36"/>
-      <c r="E162" s="41"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B163" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C163" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D163" s="36"/>
-      <c r="E163" s="41"/>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B164" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C164" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D164" s="36"/>
-      <c r="E164" s="41"/>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B165" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C165" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" s="36"/>
-      <c r="E165" s="41"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B166" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C166" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166" s="36"/>
-      <c r="E166" s="41"/>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B167" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C167" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D167" s="36"/>
-      <c r="E167" s="41"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B168" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C168" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D168" s="36"/>
-      <c r="E168" s="41"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B169" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C169" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D169" s="36"/>
-      <c r="E169" s="41"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B170" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C170" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D170" s="36"/>
-      <c r="E170" s="41"/>
-    </row>
-    <row r="171" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="19"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="45"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="20"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E175" s="22"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="B176" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C176" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D176" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B177" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C177" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D177" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E177" s="28"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B178" s="27"/>
-      <c r="C178" s="27"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="28"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="26"/>
-      <c r="B179" s="27"/>
-      <c r="C179" s="27"/>
-      <c r="D179" s="29"/>
-      <c r="E179" s="28"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="26"/>
-      <c r="B180" s="27"/>
-      <c r="C180" s="27"/>
-      <c r="D180" s="29"/>
-      <c r="E180" s="28"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="42"/>
-      <c r="B181" s="43"/>
-      <c r="C181" s="43"/>
-      <c r="D181" s="46"/>
-      <c r="E181" s="44"/>
-    </row>
+      <c r="D200" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E200" s="28"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="28"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="26"/>
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="28"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="26"/>
+      <c r="B203" s="27"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="28"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="40"/>
+      <c r="B204" s="41"/>
+      <c r="C204" s="41"/>
+      <c r="D204" s="44"/>
+      <c r="E204" s="42"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:E1"/>
@@ -3644,15 +4064,15 @@
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="A196:E196"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A53:A170" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A56:A193" type="list">
       <formula1>"A:,C:"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3664,11 +4084,11 @@
       <formula1>"G:,T:,P:"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A177:A181" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A200:A204" type="list">
       <formula1>"B:,E:"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A38:A45" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A38:A48" type="list">
       <formula1>"G:,T:"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/pages/raborrelli-collaborators.xlsx
+++ b/pages/raborrelli-collaborators.xlsx
@@ -705,7 +705,7 @@
     <t xml:space="preserve">Johnson, Michael</t>
   </si>
   <si>
-    <t xml:space="preserve">FitzPatrick Nuclear Power Plant</t>
+    <t xml:space="preserve">Nine Mile Point Nuclear Power Plant</t>
   </si>
   <si>
     <t xml:space="preserve">Riley, Sean</t>
@@ -1608,8 +1608,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B143" activeCellId="0" sqref="B143"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C116" activeCellId="0" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pages/raborrelli-collaborators.xlsx
+++ b/pages/raborrelli-collaborators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="234">
   <si>
     <t xml:space="preserve">The following information regarding collaborators and other affiliations (COA) must be separately provided for each individual identified as senior project personnel. The COA information must be provided through use of this COA template.  
 Please complete this template (e.g., Excel, Google Sheets, LibreOffice), save as .xlsx or .xls, and upload directly as a Research.gov or FastLane Collaborators and Other Affiliations single-copy document. Do not upload .pdf. Grants.gov Users: The COA information must be provided through use of the COA template and uploaded as a PDF attachment.
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t xml:space="preserve">Benjamin, Jacob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragos, Inc.</t>
   </si>
   <si>
     <t xml:space="preserve">Keiser, Jr., Dennis</t>
@@ -1609,7 +1612,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C116" activeCellId="0" sqref="C116"/>
+      <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2957,7 +2960,7 @@
         <v>137</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D118" s="34"/>
       <c r="E118" s="39"/>
@@ -2967,7 +2970,7 @@
         <v>89</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>48</v>
@@ -2980,7 +2983,7 @@
         <v>89</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>48</v>
@@ -2993,10 +2996,10 @@
         <v>89</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D121" s="34"/>
       <c r="E121" s="39"/>
@@ -3032,10 +3035,10 @@
         <v>89</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C124" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D124" s="34"/>
       <c r="E124" s="39"/>
@@ -3045,10 +3048,10 @@
         <v>89</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C125" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D125" s="34"/>
       <c r="E125" s="39"/>
@@ -3058,7 +3061,7 @@
         <v>89</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>48</v>
@@ -3071,7 +3074,7 @@
         <v>89</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>19</v>
@@ -3084,10 +3087,10 @@
         <v>89</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D128" s="34"/>
       <c r="E128" s="39"/>
@@ -3097,10 +3100,10 @@
         <v>89</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D129" s="34"/>
       <c r="E129" s="39"/>
@@ -3110,7 +3113,7 @@
         <v>89</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>48</v>
@@ -3123,10 +3126,10 @@
         <v>89</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D131" s="34"/>
       <c r="E131" s="39"/>
@@ -3191,7 +3194,7 @@
         <v>82</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D136" s="34"/>
       <c r="E136" s="39"/>
@@ -3201,7 +3204,7 @@
         <v>89</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>48</v>
@@ -3279,10 +3282,10 @@
         <v>89</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D143" s="34"/>
       <c r="E143" s="39"/>
@@ -3292,10 +3295,10 @@
         <v>89</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D144" s="34"/>
       <c r="E144" s="39"/>
@@ -3305,10 +3308,10 @@
         <v>89</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D145" s="34"/>
       <c r="E145" s="39"/>
@@ -3318,10 +3321,10 @@
         <v>89</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D146" s="34"/>
       <c r="E146" s="39"/>
@@ -3331,10 +3334,10 @@
         <v>89</v>
       </c>
       <c r="B147" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C147" s="33" t="s">
         <v>162</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>161</v>
       </c>
       <c r="D147" s="34"/>
       <c r="E147" s="39"/>
@@ -3344,7 +3347,7 @@
         <v>89</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C148" s="33" t="s">
         <v>48</v>
@@ -3357,7 +3360,7 @@
         <v>89</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>48</v>
@@ -3370,7 +3373,7 @@
         <v>89</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>65</v>
@@ -3383,7 +3386,7 @@
         <v>89</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>65</v>
@@ -3396,7 +3399,7 @@
         <v>89</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C152" s="33" t="s">
         <v>65</v>
@@ -3409,7 +3412,7 @@
         <v>89</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C153" s="33" t="s">
         <v>48</v>
@@ -3422,7 +3425,7 @@
         <v>89</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C154" s="33" t="s">
         <v>48</v>
@@ -3435,7 +3438,7 @@
         <v>89</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C155" s="33" t="s">
         <v>19</v>
@@ -3448,10 +3451,10 @@
         <v>89</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D156" s="34"/>
       <c r="E156" s="39"/>
@@ -3461,10 +3464,10 @@
         <v>89</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D157" s="34"/>
       <c r="E157" s="39"/>
@@ -3474,10 +3477,10 @@
         <v>89</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D158" s="34"/>
       <c r="E158" s="39"/>
@@ -3487,7 +3490,7 @@
         <v>89</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C159" s="33" t="s">
         <v>19</v>
@@ -3500,7 +3503,7 @@
         <v>89</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C160" s="33" t="s">
         <v>48</v>
@@ -3513,10 +3516,10 @@
         <v>89</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D161" s="34"/>
       <c r="E161" s="39"/>
@@ -3526,7 +3529,7 @@
         <v>89</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C162" s="33" t="s">
         <v>63</v>
@@ -3539,7 +3542,7 @@
         <v>89</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C163" s="33" t="s">
         <v>63</v>
@@ -3552,7 +3555,7 @@
         <v>89</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C164" s="33" t="s">
         <v>63</v>
@@ -3565,7 +3568,7 @@
         <v>89</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C165" s="33" t="s">
         <v>63</v>
@@ -3578,7 +3581,7 @@
         <v>89</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C166" s="33" t="s">
         <v>19</v>
@@ -3591,7 +3594,7 @@
         <v>89</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C167" s="33" t="s">
         <v>19</v>
@@ -3604,7 +3607,7 @@
         <v>89</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C168" s="33" t="s">
         <v>48</v>
@@ -3617,7 +3620,7 @@
         <v>89</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C169" s="33" t="s">
         <v>65</v>
@@ -3630,7 +3633,7 @@
         <v>89</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C170" s="33" t="s">
         <v>65</v>
@@ -3643,7 +3646,7 @@
         <v>89</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C171" s="33" t="s">
         <v>19</v>
@@ -3656,7 +3659,7 @@
         <v>89</v>
       </c>
       <c r="B172" s="33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C172" s="33" t="s">
         <v>19</v>
@@ -3669,10 +3672,10 @@
         <v>89</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D173" s="34"/>
       <c r="E173" s="39"/>
@@ -3682,10 +3685,10 @@
         <v>89</v>
       </c>
       <c r="B174" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C174" s="33" t="s">
         <v>194</v>
-      </c>
-      <c r="C174" s="33" t="s">
-        <v>193</v>
       </c>
       <c r="D174" s="34"/>
       <c r="E174" s="39"/>
@@ -3695,7 +3698,7 @@
         <v>89</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C175" s="33" t="s">
         <v>65</v>
@@ -3708,10 +3711,10 @@
         <v>89</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D176" s="34"/>
       <c r="E176" s="39"/>
@@ -3721,10 +3724,10 @@
         <v>89</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D177" s="34"/>
       <c r="E177" s="39"/>
@@ -3734,7 +3737,7 @@
         <v>89</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C178" s="33" t="s">
         <v>63</v>
@@ -3747,10 +3750,10 @@
         <v>89</v>
       </c>
       <c r="B179" s="33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D179" s="34"/>
       <c r="E179" s="39"/>
@@ -3760,10 +3763,10 @@
         <v>89</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D180" s="34"/>
       <c r="E180" s="39"/>
@@ -3773,10 +3776,10 @@
         <v>89</v>
       </c>
       <c r="B181" s="33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D181" s="34"/>
       <c r="E181" s="39"/>
@@ -3786,10 +3789,10 @@
         <v>89</v>
       </c>
       <c r="B182" s="33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D182" s="34"/>
       <c r="E182" s="39"/>
@@ -3799,10 +3802,10 @@
         <v>89</v>
       </c>
       <c r="B183" s="33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D183" s="34"/>
       <c r="E183" s="39"/>
@@ -3812,7 +3815,7 @@
         <v>89</v>
       </c>
       <c r="B184" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C184" s="33" t="s">
         <v>74</v>
@@ -3825,10 +3828,10 @@
         <v>89</v>
       </c>
       <c r="B185" s="33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C185" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D185" s="34"/>
       <c r="E185" s="39"/>
@@ -3838,10 +3841,10 @@
         <v>89</v>
       </c>
       <c r="B186" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C186" s="33" t="s">
         <v>214</v>
-      </c>
-      <c r="C186" s="33" t="s">
-        <v>213</v>
       </c>
       <c r="D186" s="34"/>
       <c r="E186" s="39"/>
@@ -3851,7 +3854,7 @@
         <v>89</v>
       </c>
       <c r="B187" s="33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C187" s="33" t="s">
         <v>48</v>
@@ -3864,10 +3867,10 @@
         <v>89</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D188" s="34"/>
       <c r="E188" s="39"/>
@@ -3877,10 +3880,10 @@
         <v>89</v>
       </c>
       <c r="B189" s="33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C189" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D189" s="34"/>
       <c r="E189" s="39"/>
@@ -3890,10 +3893,10 @@
         <v>89</v>
       </c>
       <c r="B190" s="33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C190" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D190" s="34"/>
       <c r="E190" s="39"/>
@@ -3903,7 +3906,7 @@
         <v>89</v>
       </c>
       <c r="B191" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C191" s="33" t="s">
         <v>74</v>
@@ -3916,7 +3919,7 @@
         <v>89</v>
       </c>
       <c r="B192" s="33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C192" s="33" t="s">
         <v>48</v>
@@ -3939,7 +3942,7 @@
     </row>
     <row r="194" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -3948,7 +3951,7 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
@@ -3957,7 +3960,7 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
@@ -3982,7 +3985,7 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B199" s="24" t="s">
         <v>24</v>
@@ -3991,7 +3994,7 @@
         <v>33</v>
       </c>
       <c r="D199" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E199" s="25" t="s">
         <v>27</v>
@@ -3999,22 +4002,22 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C200" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E200" s="28"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B201" s="27"/>
       <c r="C201" s="27"/>

--- a/pages/raborrelli-collaborators.xlsx
+++ b/pages/raborrelli-collaborators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="233">
   <si>
     <t xml:space="preserve">The following information regarding collaborators and other affiliations (COA) must be separately provided for each individual identified as senior project personnel. The COA information must be provided through use of this COA template.  
 Please complete this template (e.g., Excel, Google Sheets, LibreOffice), save as .xlsx or .xls, and upload directly as a Research.gov or FastLane Collaborators and Other Affiliations single-copy document. Do not upload .pdf. Grants.gov Users: The COA information must be provided through use of the COA template and uploaded as a PDF attachment.
@@ -576,6 +576,9 @@
     <t xml:space="preserve">Shigrekar, Amey</t>
   </si>
   <si>
+    <t xml:space="preserve">MacLean, Trevor</t>
+  </si>
+  <si>
     <t xml:space="preserve">C:</t>
   </si>
   <si>
@@ -772,9 +775,6 @@
   </si>
   <si>
     <t xml:space="preserve">Texas A&amp;M University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacLean, Trevor</t>
   </si>
   <si>
     <t xml:space="preserve">Chirayath, Sunil</t>
@@ -1028,9 +1028,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nuclear Engineering and Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E:</t>
   </si>
 </sst>
 </file>
@@ -1566,8 +1563,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableD" displayName="TableD" ref="A55:E193" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A55:E193"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableD" displayName="TableD" ref="A55:E194" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A55:E194"/>
   <tableColumns count="5">
     <tableColumn id="1" name="4"/>
     <tableColumn id="2" name="Name:"/>
@@ -1592,8 +1589,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableD5" displayName="TableD5" ref="A199:E204" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A199:E204"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableD5" displayName="TableD5" ref="A200:E205" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A200:E205"/>
   <tableColumns count="5">
     <tableColumn id="1" name="5"/>
     <tableColumn id="2" name="Name:"/>
@@ -1611,8 +1608,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A202" activeCellId="0" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2471,22 +2468,22 @@
       <c r="D80" s="27"/>
       <c r="E80" s="28"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="32" t="s">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="C81" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D81" s="34"/>
-      <c r="E81" s="39"/>
+        <v>48</v>
+      </c>
+      <c r="D81" s="27"/>
+      <c r="E81" s="28"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B82" s="33" t="s">
         <v>91</v>
@@ -2499,7 +2496,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" s="33" t="s">
         <v>92</v>
@@ -2512,153 +2509,153 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="33" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D84" s="34"/>
       <c r="E84" s="39"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" s="27" t="s">
+      <c r="A85" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="29"/>
-      <c r="E85" s="28"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="39"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="27" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="28"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="41" t="s">
+      <c r="A87" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C87" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42"/>
-    </row>
-    <row r="88" s="20" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" s="33" t="s">
+      <c r="D87" s="29"/>
+      <c r="E87" s="28"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="39"/>
-    </row>
-    <row r="89" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C88" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="41"/>
+      <c r="E88" s="42"/>
+    </row>
+    <row r="89" s="20" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="33" t="s">
         <v>99</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D89" s="34"/>
       <c r="E89" s="39"/>
     </row>
-    <row r="90" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="33" t="s">
         <v>101</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>102</v>
       </c>
       <c r="D90" s="34"/>
       <c r="E90" s="39"/>
     </row>
     <row r="91" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="C91" s="33" t="s">
-        <v>104</v>
       </c>
       <c r="D91" s="34"/>
       <c r="E91" s="39"/>
     </row>
     <row r="92" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="33" t="s">
         <v>105</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>104</v>
       </c>
       <c r="D92" s="34"/>
       <c r="E92" s="39"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="33" t="s">
         <v>106</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D93" s="34"/>
       <c r="E93" s="39"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D94" s="34"/>
       <c r="E94" s="39"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>19</v>
@@ -2668,10 +2665,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>19</v>
@@ -2681,7 +2678,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="33" t="s">
         <v>109</v>
@@ -2694,7 +2691,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="33" t="s">
         <v>110</v>
@@ -2707,10 +2704,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>19</v>
@@ -2720,10 +2717,10 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>19</v>
@@ -2733,254 +2730,254 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="D101" s="34"/>
       <c r="E101" s="39"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>48</v>
       </c>
       <c r="D102" s="34"/>
       <c r="E102" s="39"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="33" t="s">
         <v>114</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="D103" s="34"/>
       <c r="E103" s="39"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="33" t="s">
         <v>116</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>117</v>
       </c>
       <c r="D104" s="34"/>
       <c r="E104" s="39"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="33" t="s">
         <v>118</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>19</v>
       </c>
       <c r="D105" s="34"/>
       <c r="E105" s="39"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D106" s="34"/>
       <c r="E106" s="39"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B107" s="33" t="s">
         <v>120</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D107" s="34"/>
       <c r="E107" s="39"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B108" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="D108" s="34"/>
       <c r="E108" s="39"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B109" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="C109" s="33" t="s">
-        <v>124</v>
       </c>
       <c r="D109" s="34"/>
       <c r="E109" s="39"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B110" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>124</v>
       </c>
       <c r="D110" s="34"/>
       <c r="E110" s="39"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B111" s="33" t="s">
         <v>126</v>
       </c>
       <c r="C111" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D111" s="34"/>
       <c r="E111" s="39"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B112" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D112" s="34"/>
       <c r="E112" s="39"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B113" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="33" t="s">
         <v>129</v>
-      </c>
-      <c r="C113" s="33" t="s">
-        <v>128</v>
       </c>
       <c r="D113" s="34"/>
       <c r="E113" s="39"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B114" s="33" t="s">
         <v>130</v>
       </c>
       <c r="C114" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D114" s="34"/>
       <c r="E114" s="39"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B115" s="33" t="s">
         <v>131</v>
       </c>
       <c r="C115" s="33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D115" s="34"/>
       <c r="E115" s="39"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B116" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" s="33" t="s">
         <v>133</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>134</v>
       </c>
       <c r="D116" s="34"/>
       <c r="E116" s="39"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B117" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="33" t="s">
         <v>135</v>
-      </c>
-      <c r="C117" s="33" t="s">
-        <v>136</v>
       </c>
       <c r="D117" s="34"/>
       <c r="E117" s="39"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B118" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" s="33" t="s">
         <v>137</v>
-      </c>
-      <c r="C118" s="33" t="s">
-        <v>138</v>
       </c>
       <c r="D118" s="34"/>
       <c r="E118" s="39"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B119" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>48</v>
       </c>
       <c r="D119" s="34"/>
       <c r="E119" s="39"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B120" s="33" t="s">
         <v>140</v>
@@ -2993,348 +2990,348 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B121" s="33" t="s">
         <v>141</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="D121" s="34"/>
       <c r="E121" s="39"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="D122" s="34"/>
       <c r="E122" s="39"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C123" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D123" s="34"/>
       <c r="E123" s="39"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="C124" s="33" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="D124" s="34"/>
       <c r="E124" s="39"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B125" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>142</v>
       </c>
       <c r="D125" s="34"/>
       <c r="E125" s="39"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B126" s="33" t="s">
         <v>146</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="D126" s="34"/>
       <c r="E126" s="39"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B127" s="33" t="s">
         <v>147</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D127" s="34"/>
       <c r="E127" s="39"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B128" s="33" t="s">
         <v>148</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="D128" s="34"/>
       <c r="E128" s="39"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B129" s="33" t="s">
         <v>149</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D129" s="34"/>
       <c r="E129" s="39"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B130" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C130" s="33" t="s">
         <v>151</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>48</v>
       </c>
       <c r="D130" s="34"/>
       <c r="E130" s="39"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B131" s="33" t="s">
         <v>152</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="D131" s="34"/>
       <c r="E131" s="39"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="D132" s="34"/>
       <c r="E132" s="39"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D133" s="34"/>
       <c r="E133" s="39"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D134" s="34"/>
       <c r="E134" s="39"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D135" s="34"/>
       <c r="E135" s="39"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="D136" s="34"/>
       <c r="E136" s="39"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B137" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="33" t="s">
         <v>155</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>48</v>
       </c>
       <c r="D137" s="34"/>
       <c r="E137" s="39"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B138" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B138" s="33" t="s">
-        <v>70</v>
-      </c>
       <c r="C138" s="33" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D138" s="34"/>
       <c r="E138" s="39"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D139" s="34"/>
       <c r="E139" s="39"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D140" s="34"/>
       <c r="E140" s="39"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="D141" s="34"/>
       <c r="E141" s="39"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D142" s="34"/>
       <c r="E142" s="39"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="D143" s="34"/>
       <c r="E143" s="39"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D144" s="34"/>
       <c r="E144" s="39"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D145" s="34"/>
       <c r="E145" s="39"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D146" s="34"/>
       <c r="E146" s="39"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C147" s="33" t="s">
         <v>162</v>
@@ -3344,23 +3341,23 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D148" s="34"/>
       <c r="E148" s="39"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>48</v>
@@ -3370,23 +3367,23 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D150" s="34"/>
       <c r="E150" s="39"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>65</v>
@@ -3396,10 +3393,10 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C152" s="33" t="s">
         <v>65</v>
@@ -3409,23 +3406,23 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D153" s="34"/>
       <c r="E153" s="39"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C154" s="33" t="s">
         <v>48</v>
@@ -3435,114 +3432,114 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D155" s="34"/>
       <c r="E155" s="39"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="D156" s="34"/>
       <c r="E156" s="39"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D157" s="34"/>
       <c r="E157" s="39"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D158" s="34"/>
       <c r="E158" s="39"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="D159" s="34"/>
       <c r="E159" s="39"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D160" s="34"/>
       <c r="E160" s="39"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="D161" s="34"/>
       <c r="E161" s="39"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="D162" s="34"/>
       <c r="E162" s="39"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C163" s="33" t="s">
         <v>63</v>
@@ -3552,10 +3549,10 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C164" s="33" t="s">
         <v>63</v>
@@ -3565,10 +3562,10 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C165" s="33" t="s">
         <v>63</v>
@@ -3578,23 +3575,23 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D166" s="34"/>
       <c r="E166" s="39"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C167" s="33" t="s">
         <v>19</v>
@@ -3604,36 +3601,36 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D168" s="34"/>
       <c r="E168" s="39"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D169" s="34"/>
       <c r="E169" s="39"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C170" s="33" t="s">
         <v>65</v>
@@ -3643,23 +3640,23 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C171" s="33" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D171" s="34"/>
       <c r="E171" s="39"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B172" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C172" s="33" t="s">
         <v>19</v>
@@ -3669,23 +3666,23 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="D173" s="34"/>
       <c r="E173" s="39"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C174" s="33" t="s">
         <v>194</v>
@@ -3695,153 +3692,153 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="D175" s="34"/>
       <c r="E175" s="39"/>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="D176" s="34"/>
       <c r="E176" s="39"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D177" s="34"/>
       <c r="E177" s="39"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="D178" s="34"/>
       <c r="E178" s="39"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B179" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="D179" s="34"/>
       <c r="E179" s="39"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D180" s="34"/>
       <c r="E180" s="39"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B181" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D181" s="34"/>
       <c r="E181" s="39"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B182" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D182" s="34"/>
       <c r="E182" s="39"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B183" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D183" s="34"/>
       <c r="E183" s="39"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B184" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="D184" s="34"/>
       <c r="E184" s="39"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B185" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C185" s="33" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D185" s="34"/>
       <c r="E185" s="39"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B186" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C186" s="33" t="s">
         <v>214</v>
@@ -3851,184 +3848,188 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B187" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C187" s="33" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="D187" s="34"/>
       <c r="E187" s="39"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="D188" s="34"/>
       <c r="E188" s="39"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B189" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C189" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D189" s="34"/>
       <c r="E189" s="39"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B190" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C190" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D190" s="34"/>
       <c r="E190" s="39"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B191" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C191" s="33" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="D191" s="34"/>
       <c r="E191" s="39"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B192" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C192" s="33" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D192" s="34"/>
       <c r="E192" s="39"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B193" s="33" t="s">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="C193" s="33" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D193" s="34"/>
       <c r="E193" s="39"/>
     </row>
-    <row r="194" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8" t="s">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B194" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="34"/>
+      <c r="E194" s="39"/>
+    </row>
+    <row r="195" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
       <c r="D196" s="18"/>
       <c r="E196" s="18"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="19"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="43"/>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="18"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="20"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="20"/>
-      <c r="D198" s="21" t="s">
+      <c r="A198" s="19"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="43"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E198" s="22"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="23" t="s">
+      <c r="E199" s="22"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B199" s="24" t="s">
+      <c r="B200" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C199" s="24" t="s">
+      <c r="C200" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D199" s="24" t="s">
+      <c r="D200" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="E199" s="25" t="s">
+      <c r="E200" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B200" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C200" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D200" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E200" s="28"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="27"/>
+        <v>230</v>
+      </c>
+      <c r="B201" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C201" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D201" s="27" t="s">
+        <v>232</v>
+      </c>
       <c r="E201" s="28"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="26"/>
       <c r="B202" s="27"/>
       <c r="C202" s="27"/>
-      <c r="D202" s="29"/>
+      <c r="D202" s="27"/>
       <c r="E202" s="28"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,13 +4040,19 @@
       <c r="E203" s="28"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="40"/>
-      <c r="B204" s="41"/>
-      <c r="C204" s="41"/>
-      <c r="D204" s="44"/>
-      <c r="E204" s="42"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="28"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="40"/>
+      <c r="B205" s="41"/>
+      <c r="C205" s="41"/>
+      <c r="D205" s="44"/>
+      <c r="E205" s="42"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -4070,12 +4077,12 @@
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A194:E194"/>
     <mergeCell ref="A195:E195"/>
     <mergeCell ref="A196:E196"/>
+    <mergeCell ref="A197:E197"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A56:A193" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A56:A194" type="list">
       <formula1>"A:,C:"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4087,7 +4094,7 @@
       <formula1>"G:,T:,P:"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A200:A204" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A201:A205" type="list">
       <formula1>"B:,E:"</formula1>
       <formula2>0</formula2>
     </dataValidation>
